--- a/qa-challenge-main/qa-challenge-nicolas-sira/ui-test/ui-test-results.xlsx
+++ b/qa-challenge-main/qa-challenge-nicolas-sira/ui-test/ui-test-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasd0\Downloads\qa-challenge-main-nicolas-sira\qa-challenge-main\qa-challenge-nicolas-sira\ui-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B577B7E3-C7E9-4410-8908-F8215AF279E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47EBCA-62F7-4330-9334-6B6D054B6A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,31 +281,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -313,13 +292,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -352,16 +324,44 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47450FFA-5D94-4365-A4CB-32CDE5DA9A40}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47450FFA-5D94-4365-A4CB-32CDE5DA9A40}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:E23" xr:uid="{47450FFA-5D94-4365-A4CB-32CDE5DA9A40}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A511CC35-08C5-4820-800E-F0F1E5F4701E}" name="Test ID"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05C05A89-16B5-4025-BF8E-425C56A8AA3C}" name="Table3" displayName="Table3" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05C05A89-16B5-4025-BF8E-425C56A8AA3C}" name="Table3" displayName="Table3" ref="A1:E2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E2" xr:uid="{05C05A89-16B5-4025-BF8E-425C56A8AA3C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6780AB8E-A508-4C15-B43C-1CE906928B09}" name="Test ID"/>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,8 +1099,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
